--- a/biology/Médecine/Sicko_(film)/Sicko_(film).xlsx
+++ b/biology/Médecine/Sicko_(film)/Sicko_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sicko (ou SiCKO) est un film documentaire de deux heures du réalisateur américain Michael Moore, d'abord projeté le 19 mai 2007 au Festival de Cannes[1] (hors compétition) pour les journalistes. Sa sortie en salles a eu lieu le 22 juin 2007 aux États-Unis, le 10 octobre 2007 en Belgique et le 5 septembre 2007 en France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sicko (ou SiCKO) est un film documentaire de deux heures du réalisateur américain Michael Moore, d'abord projeté le 19 mai 2007 au Festival de Cannes (hors compétition) pour les journalistes. Sa sortie en salles a eu lieu le 22 juin 2007 aux États-Unis, le 10 octobre 2007 en Belgique et le 5 septembre 2007 en France.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Thèmes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sujet principal de cette œuvre est la comparaison du système de santé des États-Unis, à ceux du Canada, de la Grande-Bretagne, de la France et de Cuba. Ce documentaire veut faire remarquer que le système de santé des Américains est très inhumain par rapport à ceux de tant d'autres pays, étant donné qu'il dispose de liens quasiment systématiques avec les services privés et les compagnies d'assurance.
 Dans ce documentaire, des secouristes des attentats du 11 septembre 2001 intervenus dans les décombres du World Trade Center sont présentés. Malades en raison des différents composés en suspension qu'ils ont inhalés peu après les attentats ou des traumatismes psychologiques qu'ils ont subis, ils ont des difficultés financières à obtenir des soins abordables. Leurs difficultés sont mises en parallèle avec les soins de qualité prodigués aux prisonniers de Guantánamo, qui sont considérés par le gouvernement américain comme de dangereux terroristes.
@@ -544,10 +558,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Fiche technique sur IMDb[2]
+Fiche technique sur IMDb
 Titre original et français : Sicko
 Autres titre : SiCKO
 Réalisation : Michael Moore
@@ -560,14 +576,14 @@
 Gestion de la production : Ismael Gonzalez, Michael Jackman (post-production), Paul Leonardo Jr. (superviseur de la post-production)
 Effets visuels : Jessica Brunetto, Bryan Cox, David Michael Friend, Josh Kanuck, Andy Mastrocinque, Franklin S. Zitter
 Durée : 123 min (2 h 3 min)
-Budget: 9 million de $ US[3]
+Budget: 9 million de $ US
 Format : couleur - 1.85 : 1 - son DTS / Dolby Digital / SDDS - 35mm
 Sociétés de production : The Weinstein Company, Dog Eat Dog Films
 Sociétés de distribution :
  France : TFM Distribution
  États-Unis : The Weinstein Company
  Canada : Alliance Atlantis Motion Picture Distribution
-Dates de sortie[4]:
+Dates de sortie:
  France : 19 mai 2007 (Festival de Cannes), 5 septembre 2007 (sortie nationale)
  Canada : 29 juin 2007
  États-Unis : 22 juin 2007 (sortie new-yorkaise), 3 juillet 2007 (sortie nationale)
@@ -601,7 +617,9 @@
           <t>Lieux de tournage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
  États-Unis :
@@ -652,12 +670,14 @@
           <t>Box office</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Source : Box Office Mojo[3] et Cinefeed[5]
- États-Unis : 24 540 079 $[3]
- Monde : 36 088 109 $[3]
- France : 94 458 entrées[5]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Source : Box Office Mojo et Cinefeed
+ États-Unis : 24 540 079 $
+ Monde : 36 088 109 $
+ France : 94 458 entrées</t>
         </is>
       </c>
     </row>
@@ -685,9 +705,11 @@
           <t>Récompenses et nominations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Source : AlloCiné[6]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Source : AlloCiné
 </t>
         </is>
       </c>
